--- a/氣象性能評估工具V2/data/obs/2016-06-19_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-19_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="213">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>2016-06-19-00</t>
   </si>
   <si>
-    <t>21.2</t>
-  </si>
-  <si>
     <t>25.2</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>28.2</t>
   </si>
   <si>
+    <t>19.7</t>
+  </si>
+  <si>
     <t>2016-06-19-01</t>
   </si>
   <si>
-    <t>19.7</t>
-  </si>
-  <si>
     <t>25.3</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>26.5</t>
   </si>
   <si>
+    <t>20.0</t>
+  </si>
+  <si>
     <t>2016-06-19-03</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>24.7</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>26.3</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-19-04</t>
   </si>
   <si>
-    <t>21.4</t>
-  </si>
-  <si>
     <t>24.5</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>6.3</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
     <t>2016-06-19-06</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>23.8</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>30.6</t>
   </si>
   <si>
+    <t>23.9</t>
+  </si>
+  <si>
     <t>2016-06-19-08</t>
   </si>
   <si>
-    <t>23.9</t>
-  </si>
-  <si>
     <t>31.4</t>
   </si>
   <si>
@@ -553,12 +553,12 @@
     <t>8.2</t>
   </si>
   <si>
+    <t>23.7</t>
+  </si>
+  <si>
     <t>2016-06-19-15</t>
   </si>
   <si>
-    <t>23.7</t>
-  </si>
-  <si>
     <t>14.7</t>
   </si>
   <si>
@@ -577,12 +577,12 @@
     <t>7.9</t>
   </si>
   <si>
+    <t>23.1</t>
+  </si>
+  <si>
     <t>2016-06-19-17</t>
   </si>
   <si>
-    <t>23.1</t>
-  </si>
-  <si>
     <t>7.2</t>
   </si>
   <si>
@@ -595,12 +595,12 @@
     <t>6.8</t>
   </si>
   <si>
+    <t>22.0</t>
+  </si>
+  <si>
     <t>2016-06-19-19</t>
   </si>
   <si>
-    <t>22.0</t>
-  </si>
-  <si>
     <t>13.6</t>
   </si>
   <si>
@@ -622,19 +622,19 @@
     <t>12.4</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-19-21</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>6.4</t>
   </si>
   <si>
+    <t>21.5</t>
+  </si>
+  <si>
     <t>2016-06-19-22</t>
-  </si>
-  <si>
-    <t>21.5</t>
   </si>
   <si>
     <t>23.5</t>
@@ -659,6 +659,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -688,8 +691,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,11 +1072,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1145,11 +1149,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -1222,7 +1226,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B4" t="s">
@@ -1299,11 +1303,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -1376,11 +1380,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -1453,11 +1457,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -1530,11 +1534,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -1607,7 +1611,7 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B9" t="s">
@@ -1684,11 +1688,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
         <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>120</v>
@@ -1730,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
         <v>128</v>
@@ -1761,7 +1765,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B11" t="s">
@@ -1838,7 +1842,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B12" t="s">
@@ -1915,7 +1919,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B13" t="s">
@@ -1992,7 +1996,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B14" t="s">
@@ -2069,7 +2073,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B15" t="s">
@@ -2146,7 +2150,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B16" t="s">
@@ -2223,11 +2227,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
         <v>179</v>
-      </c>
-      <c r="B17" t="s">
-        <v>180</v>
       </c>
       <c r="C17" t="s">
         <v>118</v>
@@ -2300,11 +2304,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
         <v>119</v>
@@ -2377,11 +2381,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" t="s">
         <v>187</v>
-      </c>
-      <c r="B19" t="s">
-        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>76</v>
@@ -2454,7 +2458,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B20" t="s">
@@ -2531,17 +2535,17 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" t="s">
         <v>193</v>
-      </c>
-      <c r="B21" t="s">
-        <v>194</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
         <v>126</v>
@@ -2608,7 +2612,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B22" t="s">
@@ -2685,11 +2689,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
         <v>202</v>
-      </c>
-      <c r="B23" t="s">
-        <v>203</v>
       </c>
       <c r="C23" t="s">
         <v>104</v>
@@ -2762,11 +2766,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
         <v>205</v>
-      </c>
-      <c r="B24" t="s">
-        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>198</v>
@@ -2839,17 +2843,17 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
         <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
@@ -2882,7 +2886,7 @@
         <v>108</v>
       </c>
       <c r="O25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P25" t="s">
         <v>211</v>
